--- a/pali-class/vocab/vocab-class22.xlsx
+++ b/pali-class/vocab/vocab-class22.xlsx
@@ -49,42 +49,42 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
     <t>ujjhāyanta</t>
   </si>
   <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -94,27 +94,27 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>uppajjamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
+    <t>bhāsamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>uppajjamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
-    <t>bhāsamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>puratthima</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -313,147 +313,147 @@
     <t>sukka 1</t>
   </si>
   <si>
+    <t>anuttara</t>
+  </si>
+  <si>
+    <t>appamāṇa</t>
+  </si>
+  <si>
+    <t>maha 2</t>
+  </si>
+  <si>
+    <t>vipula 1</t>
+  </si>
+  <si>
+    <t>anavajja 1</t>
+  </si>
+  <si>
+    <t>subhāsita 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>pubba 1.1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>appiya 1</t>
+  </si>
+  <si>
+    <t>piya 2</t>
+  </si>
+  <si>
+    <t>sukha 1</t>
+  </si>
+  <si>
+    <t>matta 2</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>bhūta 1</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>savicāra</t>
+  </si>
+  <si>
+    <t>savitakka</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sagga 1.1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
+  </si>
+  <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uḷāra 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>matta 1</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>patirūpa</t>
+  </si>
+  <si>
+    <t>jiṇṇa 1</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>appa 1</t>
+  </si>
+  <si>
+    <t>khama 2</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>dussīla 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 1</t>
+  </si>
+  <si>
+    <t>dullabha 1</t>
+  </si>
+  <si>
+    <t>panta 2</t>
+  </si>
+  <si>
     <t>yutta 3</t>
   </si>
   <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>maha 2</t>
-  </si>
-  <si>
-    <t>vipula 1</t>
-  </si>
-  <si>
-    <t>appamāṇa</t>
-  </si>
-  <si>
-    <t>anavajja 1</t>
-  </si>
-  <si>
-    <t>subhāsita 1</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>pubba 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
-  </si>
-  <si>
-    <t>appiya 1</t>
-  </si>
-  <si>
-    <t>piya 2</t>
-  </si>
-  <si>
-    <t>abhikkanta 1</t>
-  </si>
-  <si>
-    <t>sukha 1</t>
-  </si>
-  <si>
-    <t>matta 2</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>bhūta 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>savicāra</t>
-  </si>
-  <si>
-    <t>savitakka</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
-    <t>sagga 1.1</t>
-  </si>
-  <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>dullabha 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>uḷāra 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>matta 1</t>
-  </si>
-  <si>
-    <t>panta 2</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>patirūpa</t>
-  </si>
-  <si>
-    <t>jiṇṇa 1</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>appa 1</t>
-  </si>
-  <si>
-    <t>khama 2</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>dussīla 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -577,12 +577,12 @@
     <t>āraddha 1.1</t>
   </si>
   <si>
+    <t>ettaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>ettaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -691,66 +691,66 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>vijjati 1</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>paññāyati 1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
-    <t>vijjati 1</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>paññāyati 1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -787,12 +787,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -838,6 +841,9 @@
     <t>vata 1.1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -880,12 +886,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -922,15 +922,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
     <t>daṭṭhabba 1</t>
   </si>
   <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -973,66 +973,66 @@
     <t>deseti 1</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
+    <t>kappeti 1</t>
+  </si>
+  <si>
+    <t>paññapeti 1</t>
+  </si>
+  <si>
+    <t>janeti</t>
+  </si>
+  <si>
+    <t>bhāveti</t>
+  </si>
+  <si>
+    <t>sameti 2.2</t>
+  </si>
+  <si>
+    <t>abhisandeti</t>
+  </si>
+  <si>
+    <t>kāreti 2</t>
+  </si>
+  <si>
     <t>pabbājeti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
-    <t>kappeti 1</t>
-  </si>
-  <si>
-    <t>bhāveti</t>
-  </si>
-  <si>
-    <t>paññapeti 1</t>
-  </si>
-  <si>
-    <t>janeti</t>
-  </si>
-  <si>
-    <t>sameti 2.2</t>
-  </si>
-  <si>
     <t>pamādi</t>
   </si>
   <si>
@@ -1054,15 +1054,15 @@
     <t>tejas 1</t>
   </si>
   <si>
+    <t>āpas</t>
+  </si>
+  <si>
+    <t>cetas</t>
+  </si>
+  <si>
     <t>vāyas</t>
   </si>
   <si>
-    <t>āpas</t>
-  </si>
-  <si>
-    <t>cetas</t>
-  </si>
-  <si>
     <t>rāja 1</t>
   </si>
   <si>
@@ -1072,579 +1072,579 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>attha 1.3</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>nigaṇṭha 1</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>māsa 1.1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>vaṇṇa 03</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>attha 3.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>piṇḍa 2</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>deva 4</t>
+  </si>
+  <si>
+    <t>pabbata 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>sūriya 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>dhīra 2.2</t>
+  </si>
+  <si>
+    <t>deva 3</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.3</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>nigaṇṭha 1</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>māsa 1.1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>vaṇṇa 03</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>moghapurisa</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>soṇa 3</t>
+  </si>
+  <si>
+    <t>dhamma 1.07</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vihāra 3</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>kopa 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>bhāva 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>kumāra 2</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>putta 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>mitta 1</t>
+  </si>
+  <si>
+    <t>rājañña</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>majjha 2</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sara 2.1</t>
   </si>
   <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>attha 3.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>piṇḍa 2</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>deva 4</t>
-  </si>
-  <si>
-    <t>pabbata 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>sūriya 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>majjha 2</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>dhīra 2.2</t>
-  </si>
-  <si>
-    <t>deva 3</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>moghapurisa</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>soṇa 3</t>
-  </si>
-  <si>
-    <t>dhamma 1.07</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vihāra 3</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>kopa 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>bhāva 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>kumāra 2</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>putta 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>mitta 1</t>
-  </si>
-  <si>
-    <t>rājañña</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
     <t>sīha 1</t>
   </si>
   <si>
@@ -1687,201 +1687,201 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>socati</t>
+  </si>
+  <si>
+    <t>paṭinissajjati</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>samudācarati 2.1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 3</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>paṭisañcikkhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>payirupāsati 1</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>socati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>paṭinissajjati</t>
-  </si>
-  <si>
-    <t>payirupāsati 1</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>samudācarati 2.1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 3</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>paṭisañcikkhati</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1900,12 +1900,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1930,42 +1930,42 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>sañjānāti</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>saṇṭhāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>sañjānāti</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>saṇṭhāti</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1981,6 +1981,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1990,36 +1993,33 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>muñcati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>muñcati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -2077,18 +2077,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -2104,6 +2104,9 @@
     <t>sārathi 1</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -2125,9 +2128,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2149,15 +2149,15 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
+    <t>adāsi</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>adāsi</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -2203,6 +2203,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -2224,9 +2227,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2293,6 +2293,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -2302,24 +2305,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -2422,27 +2422,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -2458,30 +2461,30 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>kadā</t>
+  </si>
+  <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>kadā</t>
-  </si>
-  <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>garu 4</t>
   </si>
   <si>
@@ -2491,9 +2494,6 @@
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -2512,12 +2512,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -2539,15 +2539,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2584,6 +2584,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2638,12 +2644,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2686,57 +2686,57 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>katvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>vatvā</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>disvāna</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>katvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>vatvā</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>disvāna</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2767,27 +2767,27 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>pahāya 1</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>pahāya 1</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2812,21 +2812,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2836,51 +2836,51 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tatra 2</t>
+  </si>
+  <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>katthaci 1</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>tatra 2</t>
-  </si>
-  <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>katthaci 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2944,285 +2944,285 @@
     <t>bhūta 3</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>aṅga 1</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>pada 12</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>pahāna</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>nissaraṇa</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>phala 1.1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aṅga 2</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>sota 2.1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>thala 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>vana 1.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>mukha 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>addhāna 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>nimitta 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>addhāna 1</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
     <t>jīva 2</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>aṅga 1</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>pada 12</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pahāna</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>nissaraṇa</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>phala 1.1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aṅga 2</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>sota 2.1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>thala 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>vana 1.1</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>mukha 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>addhāna 2</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>nimitta 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>addhāna 1</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
     <t>jhāna 2</t>
   </si>
   <si>
@@ -3403,42 +3403,42 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
     <t>finding fault; thinking badly of</t>
   </si>
   <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -3448,27 +3448,27 @@
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>arising; appearing; coming into being</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
+    <t>speaking (about); talking (about); saying</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
-    <t>speaking (about); talking (about); saying</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -3520,12 +3520,12 @@
     <t>eastern</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -3667,147 +3667,147 @@
     <t>pure; bright</t>
   </si>
   <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
+    <t>immeasurable; unlimited; limitless; boundless</t>
+  </si>
+  <si>
+    <t>great; venerable; honourable; respected</t>
+  </si>
+  <si>
+    <t>vast; extensive; expansive; massive</t>
+  </si>
+  <si>
+    <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
+  </si>
+  <si>
+    <t>well spoken; articulate; eloquent</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>before; previous; earlier; former</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>not dear (to); unloved (by); disliked (by)</t>
+  </si>
+  <si>
+    <t>liked; pleasant; agreeable</t>
+  </si>
+  <si>
+    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
+  </si>
+  <si>
+    <t>mere; simple; the fact of; by virtue of</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>existing; born; living; lit. become</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>with investigation; with consideration</t>
+  </si>
+  <si>
+    <t>with thinking; accompanied with reflection</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
+  </si>
+  <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>excellent; lofty; high; noble</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>amount of; as many as; measure of; consisting of</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>suitable (for); proper (for); appropriate (for); befitting (for)</t>
+  </si>
+  <si>
+    <t>aged; old; ancient</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>few; not many; not much</t>
+  </si>
+  <si>
+    <t>fit (for); capable (of); suitable (for)</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>unprincipled; immoral; of bad behaviour</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>superb; surpassing; excellent</t>
+  </si>
+  <si>
+    <t>difficult to find (for); hard to obtain (for); rare (for)</t>
+  </si>
+  <si>
+    <t>secluded; isolated; solitary</t>
+  </si>
+  <si>
     <t>engaged (in); practising (to); lit. yoked</t>
   </si>
   <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
-    <t>vast; extensive; expansive; massive</t>
-  </si>
-  <si>
-    <t>immeasurable; unlimited; limitless; boundless</t>
-  </si>
-  <si>
-    <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
-  </si>
-  <si>
-    <t>well spoken; articulate; eloquent</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>before; previous; earlier; former</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
-  </si>
-  <si>
-    <t>not dear (to); unloved (by); disliked (by)</t>
-  </si>
-  <si>
-    <t>liked; pleasant; agreeable</t>
-  </si>
-  <si>
-    <t>superb; surpassing; excellent</t>
-  </si>
-  <si>
-    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
-  </si>
-  <si>
-    <t>mere; simple; the fact of; by virtue of</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>existing; born; living; lit. become</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>with investigation; with consideration</t>
-  </si>
-  <si>
-    <t>with thinking; accompanied with reflection</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>difficult to find (for); hard to obtain (for); rare (for)</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>excellent; lofty; high; noble</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>amount of; as many as; measure of; consisting of</t>
-  </si>
-  <si>
-    <t>secluded; isolated; solitary</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>suitable (for); proper (for); appropriate (for); befitting (for)</t>
-  </si>
-  <si>
-    <t>aged; old; ancient</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>few; not many; not much</t>
-  </si>
-  <si>
-    <t>fit (for); capable (of); suitable (for)</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>unprincipled; immoral; of bad behaviour</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -3931,12 +3931,12 @@
     <t>aroused; applied; undertaken</t>
   </si>
   <si>
+    <t>so much; this much; so long</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>so much; this much; so long</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -4045,66 +4045,66 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>exists (in); is found (in); is present (in)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is clearly known; is evident; is perceived; there is</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
-    <t>exists (in); is found (in); is present (in)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is clearly known; is evident; is perceived; there is</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -4141,12 +4141,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -4159,9 +4162,6 @@
     <t>again; once more</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -4192,6 +4192,9 @@
     <t>oh!; oh no!; oh dear!; wow!</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -4234,9 +4237,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -4273,15 +4273,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
     <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
   </si>
   <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -4324,66 +4324,66 @@
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
+    <t>prepares; arranges; forms; fashions; constructs</t>
+  </si>
+  <si>
+    <t>teaches; preaches; proclaims; lit. causes to know</t>
+  </si>
+  <si>
+    <t>generates; produces; lit. causes to be born</t>
+  </si>
+  <si>
+    <t>cultivates; develops; lit. causes to become</t>
+  </si>
+  <si>
+    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
+  </si>
+  <si>
+    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
+  </si>
+  <si>
+    <t>performs; practices</t>
+  </si>
+  <si>
     <t>banishes (from); exiles (from); drives away (from); lit. causes to leave</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>performs; practices</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
-    <t>prepares; arranges; forms; fashions; constructs</t>
-  </si>
-  <si>
-    <t>cultivates; develops; lit. causes to become</t>
-  </si>
-  <si>
-    <t>teaches; preaches; proclaims; lit. causes to know</t>
-  </si>
-  <si>
-    <t>generates; produces; lit. causes to be born</t>
-  </si>
-  <si>
-    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
-  </si>
-  <si>
     <t>was careless (about); neglected; was negligent (with); was heedless (about)</t>
   </si>
   <si>
@@ -4405,15 +4405,15 @@
     <t>flame; fire; heat</t>
   </si>
   <si>
+    <t>water; liquid</t>
+  </si>
+  <si>
+    <t>mind; thought; intention</t>
+  </si>
+  <si>
     <t>air; wind</t>
   </si>
   <si>
-    <t>water; liquid</t>
-  </si>
-  <si>
-    <t>mind; thought; intention</t>
-  </si>
-  <si>
     <t>king; ruler</t>
   </si>
   <si>
@@ -4423,573 +4423,573 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>purpose; use; function</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>Jain; naked ascetic; lit. free from ties</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>appearance; complexion; lit. cover</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>home; rest; shelter</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>bit of food; alms food</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>mountain; hill</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>sun; lit. shining</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>wise man; sage; intelligent person</t>
+  </si>
+  <si>
+    <t>rain cloud</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>purpose; use; function</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>Jain; naked ascetic; lit. free from ties</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>appearance; complexion; lit. cover</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>truth; reality; principle; truth behind the teaching</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>mode of living; way of life; way to spend time; mode of existence</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state; condition; characteristic; nature</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>(used to form diminutives) young man; descendent; son of</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>man of the ruling class; young noble</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>sound; voice; tone</t>
   </si>
   <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>home; rest; shelter</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>bit of food; alms food</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>mountain; hill</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>sun; lit. shining</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>wise man; sage; intelligent person</t>
-  </si>
-  <si>
-    <t>rain cloud</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>truth; reality; principle; truth behind the teaching</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>mode of living; way of life; way to spend time; mode of existence</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state; condition; characteristic; nature</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>(used to form diminutives) young man; descendent; son of</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>man of the ruling class; young noble</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
     <t>lion</t>
   </si>
   <si>
@@ -5032,201 +5032,201 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>sorrows (over); grieves (about); mourns (over)</t>
+  </si>
+  <si>
+    <t>gives up; relinquishes; drops; abandons</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>finds; encounters; meets with; lit. sees</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>reflects; considers; discerns</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>sorrows (over); grieves (about); mourns (over)</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>gives up; relinquishes; drops; abandons</t>
-  </si>
-  <si>
-    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>finds; encounters; meets with; lit. sees</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>reflects; considers; discerns</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -5245,12 +5245,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -5275,39 +5275,39 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>knows; knows as; perceives; conceives; recognizes</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
+    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>knows; knows as; perceives; conceives; recognizes</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -5323,6 +5323,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -5332,36 +5335,33 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>gets angry (with); lit. releases</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>gets angry (with); lit. releases</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -5419,18 +5419,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -5446,6 +5446,9 @@
     <t>charioteer; driver</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -5467,9 +5470,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5491,15 +5491,15 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
+    <t>gave (to); offered (to)</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>gave (to); offered (to)</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -5545,6 +5545,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -5566,9 +5569,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5635,6 +5635,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -5644,24 +5647,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -5764,27 +5764,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -5800,30 +5803,30 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>when?</t>
+  </si>
+  <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>when?</t>
-  </si>
-  <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>teacher; guru; esteemed person</t>
   </si>
   <si>
@@ -5833,9 +5836,6 @@
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -5854,12 +5854,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -5881,15 +5881,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -5926,6 +5926,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -5977,12 +5983,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -6025,51 +6025,51 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having said; having spoken (about)</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having seen</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having said; having spoken (about)</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having seen</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -6100,27 +6100,27 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>leaving behind; giving up; abandoning</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>leaving behind; giving up; abandoning</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -6145,21 +6145,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -6169,48 +6169,48 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that case; in that regard; in this matter; in this connection</t>
+  </si>
+  <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>somewhere; anywhere</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in that case; in that regard; in this matter; in this connection</t>
-  </si>
-  <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>somewhere; anywhere</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6271,283 +6271,283 @@
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>part of the body; limb</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>footprint; footstep</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>giving up (of); letting go (of); removal (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>fruit; nut; berry</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>part; member</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>dry land; firm ground; terra firma</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>wood; forest; grove</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>time; period; extent</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>mark; sign; symbol; indication</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>long road; highroad; journey</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
     <t>life</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>part of the body; limb</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>footprint; footstep</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>giving up (of); letting go (of); removal (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>fruit; nut; berry</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>part; member</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>ear</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>dry land; firm ground; terra firma</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>wood; forest; grove</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>time; period; extent</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>mark; sign; symbol; indication</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>long road; highroad; journey</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
   </si>
   <si>
     <t>meditation; stage of meditation; lit. meditating</t>
@@ -11687,7 +11687,7 @@
         <v>1109</v>
       </c>
       <c r="C261" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="D261" t="s">
         <v>1109</v>
@@ -11704,7 +11704,7 @@
         <v>1109</v>
       </c>
       <c r="C262" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D262" t="s">
         <v>1109</v>
@@ -11721,7 +11721,7 @@
         <v>1109</v>
       </c>
       <c r="C263" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D263" t="s">
         <v>1109</v>
@@ -11738,7 +11738,7 @@
         <v>1109</v>
       </c>
       <c r="C264" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D264" t="s">
         <v>1109</v>
@@ -11755,7 +11755,7 @@
         <v>1109</v>
       </c>
       <c r="C265" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D265" t="s">
         <v>1109</v>
@@ -11772,7 +11772,7 @@
         <v>1109</v>
       </c>
       <c r="C266" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D266" t="s">
         <v>1109</v>
@@ -11789,7 +11789,7 @@
         <v>1109</v>
       </c>
       <c r="C267" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D267" t="s">
         <v>1109</v>
@@ -11806,7 +11806,7 @@
         <v>1109</v>
       </c>
       <c r="C268" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D268" t="s">
         <v>1109</v>
@@ -11823,7 +11823,7 @@
         <v>1109</v>
       </c>
       <c r="C269" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D269" t="s">
         <v>1109</v>
@@ -11840,7 +11840,7 @@
         <v>1109</v>
       </c>
       <c r="C270" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D270" t="s">
         <v>1109</v>
@@ -11857,7 +11857,7 @@
         <v>1109</v>
       </c>
       <c r="C271" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D271" t="s">
         <v>1109</v>
@@ -11874,7 +11874,7 @@
         <v>1109</v>
       </c>
       <c r="C272" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D272" t="s">
         <v>1109</v>
@@ -11891,7 +11891,7 @@
         <v>1109</v>
       </c>
       <c r="C273" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D273" t="s">
         <v>1109</v>
@@ -11908,7 +11908,7 @@
         <v>1109</v>
       </c>
       <c r="C274" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D274" t="s">
         <v>1109</v>
@@ -11925,7 +11925,7 @@
         <v>1109</v>
       </c>
       <c r="C275" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D275" t="s">
         <v>1109</v>
@@ -11942,7 +11942,7 @@
         <v>1109</v>
       </c>
       <c r="C276" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D276" t="s">
         <v>1109</v>
@@ -11959,7 +11959,7 @@
         <v>1109</v>
       </c>
       <c r="C277" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D277" t="s">
         <v>1109</v>
@@ -11976,7 +11976,7 @@
         <v>1109</v>
       </c>
       <c r="C278" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D278" t="s">
         <v>1109</v>
@@ -11993,7 +11993,7 @@
         <v>1109</v>
       </c>
       <c r="C279" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D279" t="s">
         <v>1109</v>
@@ -12010,7 +12010,7 @@
         <v>1109</v>
       </c>
       <c r="C280" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D280" t="s">
         <v>1109</v>
@@ -12027,7 +12027,7 @@
         <v>1109</v>
       </c>
       <c r="C281" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D281" t="s">
         <v>1109</v>
@@ -12044,7 +12044,7 @@
         <v>1109</v>
       </c>
       <c r="C282" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D282" t="s">
         <v>1109</v>
@@ -12061,7 +12061,7 @@
         <v>1109</v>
       </c>
       <c r="C283" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D283" t="s">
         <v>1109</v>
@@ -12078,7 +12078,7 @@
         <v>1109</v>
       </c>
       <c r="C284" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D284" t="s">
         <v>1109</v>
@@ -12095,7 +12095,7 @@
         <v>1109</v>
       </c>
       <c r="C285" t="s">
-        <v>1381</v>
+        <v>1405</v>
       </c>
       <c r="D285" t="s">
         <v>1109</v>
@@ -15308,7 +15308,7 @@
         <v>1107</v>
       </c>
       <c r="C474" t="s">
-        <v>1594</v>
+        <v>1541</v>
       </c>
       <c r="D474" t="s">
         <v>2220</v>
@@ -15325,7 +15325,7 @@
         <v>1107</v>
       </c>
       <c r="C475" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D475" t="s">
         <v>2220</v>
@@ -15342,7 +15342,7 @@
         <v>1107</v>
       </c>
       <c r="C476" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D476" t="s">
         <v>2220</v>
@@ -15359,7 +15359,7 @@
         <v>1107</v>
       </c>
       <c r="C477" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D477" t="s">
         <v>2220</v>
@@ -15376,7 +15376,7 @@
         <v>1107</v>
       </c>
       <c r="C478" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D478" t="s">
         <v>2220</v>
@@ -15393,7 +15393,7 @@
         <v>1107</v>
       </c>
       <c r="C479" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D479" t="s">
         <v>2220</v>
@@ -15410,7 +15410,7 @@
         <v>1107</v>
       </c>
       <c r="C480" t="s">
-        <v>1545</v>
+        <v>1599</v>
       </c>
       <c r="D480" t="s">
         <v>2220</v>
@@ -16260,7 +16260,7 @@
         <v>1107</v>
       </c>
       <c r="C530" t="s">
-        <v>1649</v>
+        <v>1502</v>
       </c>
       <c r="D530" t="s">
         <v>2220</v>
@@ -16277,7 +16277,7 @@
         <v>1107</v>
       </c>
       <c r="C531" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D531" t="s">
         <v>2220</v>
@@ -16294,7 +16294,7 @@
         <v>1107</v>
       </c>
       <c r="C532" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D532" t="s">
         <v>2220</v>
@@ -16311,7 +16311,7 @@
         <v>1107</v>
       </c>
       <c r="C533" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D533" t="s">
         <v>2220</v>
@@ -16328,7 +16328,7 @@
         <v>1107</v>
       </c>
       <c r="C534" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D534" t="s">
         <v>2220</v>
@@ -16345,7 +16345,7 @@
         <v>1107</v>
       </c>
       <c r="C535" t="s">
-        <v>1505</v>
+        <v>1653</v>
       </c>
       <c r="D535" t="s">
         <v>2220</v>
@@ -16665,7 +16665,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C554" t="s">
         <v>1672</v>
@@ -16869,7 +16869,7 @@
         <v>569</v>
       </c>
       <c r="B566" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C566" t="s">
         <v>1684</v>
@@ -21955,7 +21955,7 @@
         <v>1117</v>
       </c>
       <c r="C865" t="s">
-        <v>1472</v>
+        <v>1982</v>
       </c>
       <c r="D865" t="s">
         <v>2242</v>
@@ -21972,7 +21972,7 @@
         <v>1117</v>
       </c>
       <c r="C866" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="D866" t="s">
         <v>2242</v>
@@ -21989,7 +21989,7 @@
         <v>1117</v>
       </c>
       <c r="C867" t="s">
-        <v>1983</v>
+        <v>1471</v>
       </c>
       <c r="D867" t="s">
         <v>2242</v>
@@ -22482,7 +22482,7 @@
         <v>1114</v>
       </c>
       <c r="C896" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D896" t="s">
         <v>1114</v>
@@ -22499,7 +22499,7 @@
         <v>1114</v>
       </c>
       <c r="C897" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D897" t="s">
         <v>1114</v>
@@ -22533,7 +22533,7 @@
         <v>1114</v>
       </c>
       <c r="C899" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D899" t="s">
         <v>1114</v>
@@ -22550,7 +22550,7 @@
         <v>1114</v>
       </c>
       <c r="C900" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D900" t="s">
         <v>1114</v>
@@ -23366,7 +23366,7 @@
         <v>1109</v>
       </c>
       <c r="C948" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="D948" t="s">
         <v>1109</v>
@@ -23383,7 +23383,7 @@
         <v>1109</v>
       </c>
       <c r="C949" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="D949" t="s">
         <v>1109</v>
@@ -25950,7 +25950,7 @@
         <v>1122</v>
       </c>
       <c r="C1100" t="s">
-        <v>2085</v>
+        <v>2177</v>
       </c>
       <c r="D1100" t="s">
         <v>2279</v>

--- a/pali-class/vocab/vocab-class22.xlsx
+++ b/pali-class/vocab/vocab-class22.xlsx
@@ -319,9 +319,6 @@
     <t>appamāṇa</t>
   </si>
   <si>
-    <t>maha 2</t>
-  </si>
-  <si>
     <t>vipula 1</t>
   </si>
   <si>
@@ -625,12 +622,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2881,6 +2878,9 @@
     <t>kuto 1</t>
   </si>
   <si>
+    <t>kuto 3</t>
+  </si>
+  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2923,12 +2923,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 1</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
-  </si>
-  <si>
     <t>adhikaraṇa 1</t>
   </si>
   <si>
@@ -3673,9 +3673,6 @@
     <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
@@ -3979,12 +3976,12 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
     <t>fifth (5th)</t>
   </si>
   <si>
@@ -6211,6 +6208,9 @@
     <t>from where?; where?</t>
   </si>
   <si>
+    <t>let alone; not to mention; what to say of; lit. from where</t>
+  </si>
+  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6250,10 +6250,10 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
-    <t>for alms; to collect alms food</t>
   </si>
   <si>
     <t>(vinaya) issue; legal procedure; disciplinary proceedings; lit. law-suit</t>
@@ -9695,13 +9695,13 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C144" t="s">
         <v>1265</v>
       </c>
       <c r="D144" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E144" t="s">
         <v>2281</v>
@@ -9712,13 +9712,13 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C145" t="s">
         <v>1266</v>
       </c>
       <c r="D145" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="E145" t="s">
         <v>2281</v>
@@ -9865,7 +9865,7 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C154" t="s">
         <v>1275</v>
@@ -9882,7 +9882,7 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C155" t="s">
         <v>1276</v>
@@ -10358,13 +10358,13 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C183" t="s">
         <v>1304</v>
       </c>
       <c r="D183" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="E183" t="s">
         <v>2281</v>
@@ -10398,7 +10398,7 @@
         <v>1306</v>
       </c>
       <c r="D185" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="E185" t="s">
         <v>2281</v>
@@ -10415,7 +10415,7 @@
         <v>1307</v>
       </c>
       <c r="D186" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E186" t="s">
         <v>2281</v>
@@ -10432,7 +10432,7 @@
         <v>1308</v>
       </c>
       <c r="D187" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="E187" t="s">
         <v>2281</v>
@@ -10443,13 +10443,13 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C188" t="s">
         <v>1309</v>
       </c>
       <c r="D188" t="s">
-        <v>2225</v>
+        <v>1109</v>
       </c>
       <c r="E188" t="s">
         <v>2281</v>
@@ -10511,13 +10511,13 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="C192" t="s">
         <v>1313</v>
       </c>
       <c r="D192" t="s">
-        <v>1109</v>
+        <v>2226</v>
       </c>
       <c r="E192" t="s">
         <v>2281</v>
@@ -10568,7 +10568,7 @@
         <v>1316</v>
       </c>
       <c r="D195" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E195" t="s">
         <v>2281</v>
@@ -10602,7 +10602,7 @@
         <v>1318</v>
       </c>
       <c r="D197" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="E197" t="s">
         <v>2281</v>
@@ -10613,16 +10613,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C198" t="s">
         <v>1319</v>
       </c>
       <c r="D198" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="E198" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -10766,13 +10766,13 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C207" t="s">
         <v>1328</v>
       </c>
       <c r="D207" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="E207" t="s">
         <v>2282</v>
@@ -10874,7 +10874,7 @@
         <v>1334</v>
       </c>
       <c r="D213" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="E213" t="s">
         <v>2282</v>
@@ -10908,7 +10908,7 @@
         <v>1336</v>
       </c>
       <c r="D215" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="E215" t="s">
         <v>2282</v>
@@ -10925,7 +10925,7 @@
         <v>1337</v>
       </c>
       <c r="D216" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="E216" t="s">
         <v>2282</v>
@@ -10942,7 +10942,7 @@
         <v>1338</v>
       </c>
       <c r="D217" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="E217" t="s">
         <v>2282</v>
@@ -10959,7 +10959,7 @@
         <v>1339</v>
       </c>
       <c r="D218" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="E218" t="s">
         <v>2282</v>
@@ -10976,7 +10976,7 @@
         <v>1340</v>
       </c>
       <c r="D219" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="E219" t="s">
         <v>2282</v>
@@ -10987,16 +10987,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C220" t="s">
         <v>1341</v>
       </c>
       <c r="D220" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="E220" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -11344,13 +11344,13 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C241" t="s">
         <v>1362</v>
       </c>
       <c r="D241" t="s">
-        <v>2237</v>
+        <v>1109</v>
       </c>
       <c r="E241" t="s">
         <v>2283</v>
@@ -11670,7 +11670,7 @@
         <v>1109</v>
       </c>
       <c r="C260" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="D260" t="s">
         <v>1109</v>
@@ -11687,7 +11687,7 @@
         <v>1109</v>
       </c>
       <c r="C261" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="D261" t="s">
         <v>1109</v>
@@ -12126,13 +12126,13 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C287" t="s">
         <v>1407</v>
       </c>
       <c r="D287" t="s">
-        <v>1109</v>
+        <v>2218</v>
       </c>
       <c r="E287" t="s">
         <v>2283</v>
@@ -12160,16 +12160,16 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C289" t="s">
         <v>1409</v>
       </c>
       <c r="D289" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="E289" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -12194,13 +12194,13 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="C291" t="s">
         <v>1411</v>
       </c>
       <c r="D291" t="s">
-        <v>2221</v>
+        <v>2238</v>
       </c>
       <c r="E291" t="s">
         <v>2284</v>
@@ -12381,13 +12381,13 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C302" t="s">
         <v>1422</v>
       </c>
       <c r="D302" t="s">
-        <v>2238</v>
+        <v>1114</v>
       </c>
       <c r="E302" t="s">
         <v>2284</v>
@@ -12517,13 +12517,13 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C310" t="s">
         <v>1430</v>
       </c>
       <c r="D310" t="s">
-        <v>1114</v>
+        <v>2237</v>
       </c>
       <c r="E310" t="s">
         <v>2284</v>
@@ -12534,13 +12534,13 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C311" t="s">
         <v>1431</v>
       </c>
       <c r="D311" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="E311" t="s">
         <v>2284</v>
@@ -12551,13 +12551,13 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C312" t="s">
         <v>1432</v>
       </c>
       <c r="D312" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E312" t="s">
         <v>2284</v>
@@ -12942,13 +12942,13 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C335" t="s">
         <v>1455</v>
       </c>
       <c r="D335" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E335" t="s">
         <v>2284</v>
@@ -12959,13 +12959,13 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C336" t="s">
         <v>1456</v>
       </c>
       <c r="D336" t="s">
-        <v>2241</v>
+        <v>1116</v>
       </c>
       <c r="E336" t="s">
         <v>2284</v>
@@ -12976,13 +12976,13 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C337" t="s">
         <v>1457</v>
       </c>
       <c r="D337" t="s">
-        <v>1116</v>
+        <v>2242</v>
       </c>
       <c r="E337" t="s">
         <v>2284</v>
@@ -12993,16 +12993,16 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="C338" t="s">
         <v>1458</v>
       </c>
       <c r="D338" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="E338" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -13016,7 +13016,7 @@
         <v>1459</v>
       </c>
       <c r="D339" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="E339" t="s">
         <v>2285</v>
@@ -13118,7 +13118,7 @@
         <v>1465</v>
       </c>
       <c r="D345" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="E345" t="s">
         <v>2285</v>
@@ -13135,10 +13135,10 @@
         <v>1466</v>
       </c>
       <c r="D346" t="s">
-        <v>2245</v>
+        <v>2220</v>
       </c>
       <c r="E346" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -15291,7 +15291,7 @@
         <v>1107</v>
       </c>
       <c r="C473" t="s">
-        <v>1593</v>
+        <v>1540</v>
       </c>
       <c r="D473" t="s">
         <v>2220</v>
@@ -15308,7 +15308,7 @@
         <v>1107</v>
       </c>
       <c r="C474" t="s">
-        <v>1541</v>
+        <v>1593</v>
       </c>
       <c r="D474" t="s">
         <v>2220</v>
@@ -16243,7 +16243,7 @@
         <v>1107</v>
       </c>
       <c r="C529" t="s">
-        <v>1648</v>
+        <v>1501</v>
       </c>
       <c r="D529" t="s">
         <v>2220</v>
@@ -16260,7 +16260,7 @@
         <v>1107</v>
       </c>
       <c r="C530" t="s">
-        <v>1502</v>
+        <v>1648</v>
       </c>
       <c r="D530" t="s">
         <v>2220</v>
@@ -16484,7 +16484,7 @@
         <v>1661</v>
       </c>
       <c r="D543" t="s">
-        <v>2220</v>
+        <v>2246</v>
       </c>
       <c r="E543" t="s">
         <v>2286</v>
@@ -16518,10 +16518,10 @@
         <v>1663</v>
       </c>
       <c r="D545" t="s">
-        <v>2246</v>
+        <v>2220</v>
       </c>
       <c r="E545" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -16563,13 +16563,13 @@
         <v>551</v>
       </c>
       <c r="B548" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C548" t="s">
         <v>1666</v>
       </c>
       <c r="D548" t="s">
-        <v>2220</v>
+        <v>2237</v>
       </c>
       <c r="E548" t="s">
         <v>2287</v>
@@ -16852,7 +16852,7 @@
         <v>568</v>
       </c>
       <c r="B565" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C565" t="s">
         <v>1683</v>
@@ -16869,7 +16869,7 @@
         <v>569</v>
       </c>
       <c r="B566" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C566" t="s">
         <v>1684</v>
@@ -17719,7 +17719,7 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C616" t="s">
         <v>1734</v>
@@ -17736,7 +17736,7 @@
         <v>620</v>
       </c>
       <c r="B617" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C617" t="s">
         <v>1735</v>
@@ -17759,7 +17759,7 @@
         <v>1736</v>
       </c>
       <c r="D618" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="E618" t="s">
         <v>2287</v>
@@ -17912,7 +17912,7 @@
         <v>1745</v>
       </c>
       <c r="D627" t="s">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="E627" t="s">
         <v>2287</v>
@@ -17923,7 +17923,7 @@
         <v>631</v>
       </c>
       <c r="B628" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C628" t="s">
         <v>1746</v>
@@ -17940,13 +17940,13 @@
         <v>632</v>
       </c>
       <c r="B629" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C629" t="s">
         <v>1747</v>
       </c>
       <c r="D629" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="E629" t="s">
         <v>2287</v>
@@ -17963,7 +17963,7 @@
         <v>1748</v>
       </c>
       <c r="D630" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="E630" t="s">
         <v>2287</v>
@@ -18008,7 +18008,7 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C633" t="s">
         <v>1751</v>
@@ -18025,7 +18025,7 @@
         <v>637</v>
       </c>
       <c r="B634" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C634" t="s">
         <v>1752</v>
@@ -18198,7 +18198,7 @@
         <v>1112</v>
       </c>
       <c r="C644" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="D644" t="s">
         <v>2249</v>
@@ -18215,7 +18215,7 @@
         <v>1112</v>
       </c>
       <c r="C645" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="D645" t="s">
         <v>2249</v>
@@ -18229,16 +18229,16 @@
         <v>649</v>
       </c>
       <c r="B646" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="C646" t="s">
         <v>1763</v>
       </c>
       <c r="D646" t="s">
-        <v>2249</v>
+        <v>2220</v>
       </c>
       <c r="E646" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -18263,13 +18263,13 @@
         <v>651</v>
       </c>
       <c r="B648" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C648" t="s">
         <v>1765</v>
       </c>
       <c r="D648" t="s">
-        <v>2220</v>
+        <v>2237</v>
       </c>
       <c r="E648" t="s">
         <v>2288</v>
@@ -18541,7 +18541,7 @@
         <v>1781</v>
       </c>
       <c r="D664" t="s">
-        <v>2237</v>
+        <v>2250</v>
       </c>
       <c r="E664" t="s">
         <v>2288</v>
@@ -18586,7 +18586,7 @@
         <v>670</v>
       </c>
       <c r="B667" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C667" t="s">
         <v>1784</v>
@@ -18603,7 +18603,7 @@
         <v>671</v>
       </c>
       <c r="B668" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C668" t="s">
         <v>1785</v>
@@ -18654,13 +18654,13 @@
         <v>674</v>
       </c>
       <c r="B671" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C671" t="s">
         <v>1788</v>
       </c>
       <c r="D671" t="s">
-        <v>2250</v>
+        <v>2239</v>
       </c>
       <c r="E671" t="s">
         <v>2288</v>
@@ -18677,7 +18677,7 @@
         <v>1789</v>
       </c>
       <c r="D672" t="s">
-        <v>2239</v>
+        <v>2251</v>
       </c>
       <c r="E672" t="s">
         <v>2288</v>
@@ -18705,13 +18705,13 @@
         <v>677</v>
       </c>
       <c r="B674" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C674" t="s">
         <v>1791</v>
       </c>
       <c r="D674" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E674" t="s">
         <v>2288</v>
@@ -18739,7 +18739,7 @@
         <v>679</v>
       </c>
       <c r="B676" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C676" t="s">
         <v>1793</v>
@@ -18773,13 +18773,13 @@
         <v>681</v>
       </c>
       <c r="B678" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C678" t="s">
         <v>1795</v>
       </c>
       <c r="D678" t="s">
-        <v>2252</v>
+        <v>2241</v>
       </c>
       <c r="E678" t="s">
         <v>2288</v>
@@ -18926,13 +18926,13 @@
         <v>690</v>
       </c>
       <c r="B687" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C687" t="s">
         <v>1804</v>
       </c>
       <c r="D687" t="s">
-        <v>2241</v>
+        <v>2253</v>
       </c>
       <c r="E687" t="s">
         <v>2288</v>
@@ -19147,13 +19147,13 @@
         <v>703</v>
       </c>
       <c r="B700" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C700" t="s">
         <v>1817</v>
       </c>
       <c r="D700" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="E700" t="s">
         <v>2288</v>
@@ -19164,7 +19164,7 @@
         <v>704</v>
       </c>
       <c r="B701" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="C701" t="s">
         <v>1818</v>
@@ -19181,13 +19181,13 @@
         <v>705</v>
       </c>
       <c r="B702" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C702" t="s">
         <v>1819</v>
       </c>
       <c r="D702" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="E702" t="s">
         <v>2288</v>
@@ -19232,13 +19232,13 @@
         <v>708</v>
       </c>
       <c r="B705" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C705" t="s">
         <v>1822</v>
       </c>
       <c r="D705" t="s">
-        <v>2248</v>
+        <v>2255</v>
       </c>
       <c r="E705" t="s">
         <v>2288</v>
@@ -19323,7 +19323,7 @@
         <v>1827</v>
       </c>
       <c r="D710" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E710" t="s">
         <v>2288</v>
@@ -19351,16 +19351,16 @@
         <v>715</v>
       </c>
       <c r="B712" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C712" t="s">
         <v>1829</v>
       </c>
       <c r="D712" t="s">
-        <v>2256</v>
+        <v>2220</v>
       </c>
       <c r="E712" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -19504,13 +19504,13 @@
         <v>724</v>
       </c>
       <c r="B721" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C721" t="s">
         <v>1838</v>
       </c>
       <c r="D721" t="s">
-        <v>2220</v>
+        <v>2257</v>
       </c>
       <c r="E721" t="s">
         <v>2289</v>
@@ -19708,13 +19708,13 @@
         <v>736</v>
       </c>
       <c r="B733" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C733" t="s">
         <v>1850</v>
       </c>
       <c r="D733" t="s">
-        <v>2257</v>
+        <v>2237</v>
       </c>
       <c r="E733" t="s">
         <v>2289</v>
@@ -19731,7 +19731,7 @@
         <v>1851</v>
       </c>
       <c r="D734" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="E734" t="s">
         <v>2289</v>
@@ -19742,13 +19742,13 @@
         <v>738</v>
       </c>
       <c r="B735" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C735" t="s">
         <v>1852</v>
       </c>
       <c r="D735" t="s">
-        <v>2240</v>
+        <v>1109</v>
       </c>
       <c r="E735" t="s">
         <v>2289</v>
@@ -19861,13 +19861,13 @@
         <v>745</v>
       </c>
       <c r="B742" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="C742" t="s">
         <v>1859</v>
       </c>
       <c r="D742" t="s">
-        <v>1109</v>
+        <v>2258</v>
       </c>
       <c r="E742" t="s">
         <v>2289</v>
@@ -19946,13 +19946,13 @@
         <v>750</v>
       </c>
       <c r="B747" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C747" t="s">
         <v>1864</v>
       </c>
       <c r="D747" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="E747" t="s">
         <v>2289</v>
@@ -19963,13 +19963,13 @@
         <v>751</v>
       </c>
       <c r="B748" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="C748" t="s">
         <v>1865</v>
       </c>
       <c r="D748" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="E748" t="s">
         <v>2289</v>
@@ -20014,13 +20014,13 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="C751" t="s">
         <v>1868</v>
       </c>
       <c r="D751" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="E751" t="s">
         <v>2289</v>
@@ -20235,13 +20235,13 @@
         <v>767</v>
       </c>
       <c r="B764" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C764" t="s">
         <v>1881</v>
       </c>
       <c r="D764" t="s">
-        <v>2261</v>
+        <v>2249</v>
       </c>
       <c r="E764" t="s">
         <v>2289</v>
@@ -20252,13 +20252,13 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C765" t="s">
         <v>1882</v>
       </c>
       <c r="D765" t="s">
-        <v>2249</v>
+        <v>2227</v>
       </c>
       <c r="E765" t="s">
         <v>2289</v>
@@ -20439,13 +20439,13 @@
         <v>779</v>
       </c>
       <c r="B776" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C776" t="s">
         <v>1893</v>
       </c>
       <c r="D776" t="s">
-        <v>2227</v>
+        <v>2262</v>
       </c>
       <c r="E776" t="s">
         <v>2289</v>
@@ -20564,10 +20564,10 @@
         <v>1900</v>
       </c>
       <c r="D783" t="s">
-        <v>2262</v>
+        <v>2220</v>
       </c>
       <c r="E783" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -20592,13 +20592,13 @@
         <v>788</v>
       </c>
       <c r="B785" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C785" t="s">
         <v>1902</v>
       </c>
       <c r="D785" t="s">
-        <v>2220</v>
+        <v>2263</v>
       </c>
       <c r="E785" t="s">
         <v>2290</v>
@@ -20694,13 +20694,13 @@
         <v>794</v>
       </c>
       <c r="B791" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C791" t="s">
         <v>1908</v>
       </c>
       <c r="D791" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="E791" t="s">
         <v>2290</v>
@@ -20768,7 +20768,7 @@
         <v>1912</v>
       </c>
       <c r="D795" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="E795" t="s">
         <v>2290</v>
@@ -20853,7 +20853,7 @@
         <v>1917</v>
       </c>
       <c r="D800" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="E800" t="s">
         <v>2290</v>
@@ -20898,13 +20898,13 @@
         <v>806</v>
       </c>
       <c r="B803" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C803" t="s">
         <v>1920</v>
       </c>
       <c r="D803" t="s">
-        <v>2266</v>
+        <v>2237</v>
       </c>
       <c r="E803" t="s">
         <v>2290</v>
@@ -20915,13 +20915,13 @@
         <v>807</v>
       </c>
       <c r="B804" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C804" t="s">
         <v>1921</v>
       </c>
       <c r="D804" t="s">
-        <v>2237</v>
+        <v>1109</v>
       </c>
       <c r="E804" t="s">
         <v>2290</v>
@@ -21136,13 +21136,13 @@
         <v>820</v>
       </c>
       <c r="B817" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C817" t="s">
         <v>1934</v>
       </c>
       <c r="D817" t="s">
-        <v>1109</v>
+        <v>2267</v>
       </c>
       <c r="E817" t="s">
         <v>2290</v>
@@ -21221,13 +21221,13 @@
         <v>825</v>
       </c>
       <c r="B822" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C822" t="s">
         <v>1939</v>
       </c>
       <c r="D822" t="s">
-        <v>2267</v>
+        <v>2227</v>
       </c>
       <c r="E822" t="s">
         <v>2290</v>
@@ -21244,7 +21244,7 @@
         <v>1940</v>
       </c>
       <c r="D823" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="E823" t="s">
         <v>2290</v>
@@ -21289,13 +21289,13 @@
         <v>829</v>
       </c>
       <c r="B826" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C826" t="s">
         <v>1943</v>
       </c>
       <c r="D826" t="s">
-        <v>2228</v>
+        <v>2268</v>
       </c>
       <c r="E826" t="s">
         <v>2290</v>
@@ -21329,10 +21329,10 @@
         <v>1945</v>
       </c>
       <c r="D828" t="s">
-        <v>2268</v>
+        <v>2220</v>
       </c>
       <c r="E828" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -21357,13 +21357,13 @@
         <v>833</v>
       </c>
       <c r="B830" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C830" t="s">
         <v>1947</v>
       </c>
       <c r="D830" t="s">
-        <v>2220</v>
+        <v>2237</v>
       </c>
       <c r="E830" t="s">
         <v>2291</v>
@@ -21374,13 +21374,13 @@
         <v>834</v>
       </c>
       <c r="B831" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="C831" t="s">
         <v>1948</v>
       </c>
       <c r="D831" t="s">
-        <v>2237</v>
+        <v>2269</v>
       </c>
       <c r="E831" t="s">
         <v>2291</v>
@@ -21527,13 +21527,13 @@
         <v>843</v>
       </c>
       <c r="B840" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="C840" t="s">
         <v>1957</v>
       </c>
       <c r="D840" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="E840" t="s">
         <v>2291</v>
@@ -21544,13 +21544,13 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="C841" t="s">
         <v>1958</v>
       </c>
       <c r="D841" t="s">
-        <v>2270</v>
+        <v>2254</v>
       </c>
       <c r="E841" t="s">
         <v>2291</v>
@@ -21567,7 +21567,7 @@
         <v>1959</v>
       </c>
       <c r="D842" t="s">
-        <v>2254</v>
+        <v>2271</v>
       </c>
       <c r="E842" t="s">
         <v>2291</v>
@@ -21601,7 +21601,7 @@
         <v>1961</v>
       </c>
       <c r="D844" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="E844" t="s">
         <v>2291</v>
@@ -21612,13 +21612,13 @@
         <v>848</v>
       </c>
       <c r="B845" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C845" t="s">
         <v>1962</v>
       </c>
       <c r="D845" t="s">
-        <v>2272</v>
+        <v>2242</v>
       </c>
       <c r="E845" t="s">
         <v>2291</v>
@@ -21972,7 +21972,7 @@
         <v>1117</v>
       </c>
       <c r="C866" t="s">
-        <v>1983</v>
+        <v>1470</v>
       </c>
       <c r="D866" t="s">
         <v>2242</v>
@@ -21989,7 +21989,7 @@
         <v>1117</v>
       </c>
       <c r="C867" t="s">
-        <v>1471</v>
+        <v>1983</v>
       </c>
       <c r="D867" t="s">
         <v>2242</v>
@@ -22224,16 +22224,16 @@
         <v>884</v>
       </c>
       <c r="B881" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="C881" t="s">
         <v>1997</v>
       </c>
       <c r="D881" t="s">
-        <v>2242</v>
+        <v>2220</v>
       </c>
       <c r="E881" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -22258,13 +22258,13 @@
         <v>886</v>
       </c>
       <c r="B883" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="C883" t="s">
         <v>1999</v>
       </c>
       <c r="D883" t="s">
-        <v>2220</v>
+        <v>1114</v>
       </c>
       <c r="E883" t="s">
         <v>2292</v>
@@ -22465,7 +22465,7 @@
         <v>1114</v>
       </c>
       <c r="C895" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D895" t="s">
         <v>1114</v>
@@ -22482,7 +22482,7 @@
         <v>1114</v>
       </c>
       <c r="C896" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D896" t="s">
         <v>1114</v>
@@ -22516,7 +22516,7 @@
         <v>1114</v>
       </c>
       <c r="C898" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="D898" t="s">
         <v>1114</v>
@@ -22533,7 +22533,7 @@
         <v>1114</v>
       </c>
       <c r="C899" t="s">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D899" t="s">
         <v>1114</v>
@@ -22598,13 +22598,13 @@
         <v>906</v>
       </c>
       <c r="B903" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C903" t="s">
         <v>2017</v>
       </c>
       <c r="D903" t="s">
-        <v>1114</v>
+        <v>2273</v>
       </c>
       <c r="E903" t="s">
         <v>2292</v>
@@ -22632,13 +22632,13 @@
         <v>908</v>
       </c>
       <c r="B905" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C905" t="s">
         <v>2019</v>
       </c>
       <c r="D905" t="s">
-        <v>2273</v>
+        <v>1121</v>
       </c>
       <c r="E905" t="s">
         <v>2292</v>
@@ -22887,13 +22887,13 @@
         <v>923</v>
       </c>
       <c r="B920" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C920" t="s">
         <v>2034</v>
       </c>
       <c r="D920" t="s">
-        <v>1121</v>
+        <v>2274</v>
       </c>
       <c r="E920" t="s">
         <v>2292</v>
@@ -23142,13 +23142,13 @@
         <v>938</v>
       </c>
       <c r="B935" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="C935" t="s">
         <v>2049</v>
       </c>
       <c r="D935" t="s">
-        <v>2274</v>
+        <v>1109</v>
       </c>
       <c r="E935" t="s">
         <v>2292</v>
@@ -23349,7 +23349,7 @@
         <v>1109</v>
       </c>
       <c r="C947" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D947" t="s">
         <v>1109</v>
@@ -23366,7 +23366,7 @@
         <v>1109</v>
       </c>
       <c r="C948" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="D948" t="s">
         <v>1109</v>
@@ -23621,7 +23621,7 @@
         <v>1117</v>
       </c>
       <c r="C963" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D963" t="s">
         <v>2276</v>

--- a/pali-class/vocab/vocab-class22.xlsx
+++ b/pali-class/vocab/vocab-class22.xlsx
@@ -2998,147 +2998,147 @@
     <t>mukha 3</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>nissaraṇa</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>jīva 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>nissaraṇa</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>jīva 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -6337,145 +6337,145 @@
     <t>face</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>
@@ -26003,7 +26003,7 @@
         <v>1125</v>
       </c>
       <c r="C1101" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D1101" t="s">
         <v>2291</v>

--- a/pali-class/vocab/vocab-class22.xlsx
+++ b/pali-class/vocab/vocab-class22.xlsx
@@ -589,12 +589,12 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>attato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>anattato</t>
   </si>
   <si>
@@ -898,33 +898,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -2107,36 +2107,36 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>sārathi 2</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>licchavi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>sārathi 2</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>licchavi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -3766,7 +3766,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>fit (for); capable (of); suitable (for)</t>
@@ -3952,12 +3952,12 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as oneself; as self</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
@@ -4150,7 +4150,7 @@
     <t>internally; inwardly; personally</t>
   </si>
   <si>
-    <t>by one’s own; oneself; one’s own</t>
+    <t>by one's own; oneself; one's own</t>
   </si>
   <si>
     <t>so; thus; in such a way; likewise; similarly</t>
@@ -4258,33 +4258,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -5458,36 +5458,36 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>(horse or elephant) trainer</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>name of a prominent group of Khattiyas based in Vesālī</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>(horse or elephant) trainer</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>name of a prominent group of Khattiyas based in Vesālī</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5602,10 +5602,10 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>surely?; didn’t?; isn't it?; definitely</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
+    <t>surely?; didn't?; isn't it?; definitely</t>
+  </si>
+  <si>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -6139,7 +6139,7 @@
     <t>rain; rainfall</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -6604,10 +6604,10 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>could it be?; what if?; shall?; let’s?; perhaps?</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>could it be?; what if?; shall?; let's?; perhaps?</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -6637,7 +6637,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class22.xlsx
+++ b/pali-class/vocab/vocab-class22.xlsx
@@ -490,6 +490,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -532,9 +535,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -571,15 +571,15 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
     <t>ettaka</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -874,15 +874,15 @@
     <t>atha 1</t>
   </si>
   <si>
+    <t>atha 2</t>
+  </si>
+  <si>
     <t>aññathā 1</t>
   </si>
   <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>atha 2</t>
-  </si>
-  <si>
     <t>yebhuyyena</t>
   </si>
   <si>
@@ -1162,438 +1162,438 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>sara 2.1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>attha 3.1</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>deva 4</t>
+  </si>
+  <si>
+    <t>deva 3</t>
+  </si>
+  <si>
+    <t>sūriya 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>kopa 1</t>
+  </si>
+  <si>
+    <t>bhāva 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>piṇḍa 2</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>moghapurisa</t>
+  </si>
+  <si>
+    <t>dhīra 2.2</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.07</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>vihāra 3</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>pabbata 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>mitta 1</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>sara 2.1</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>attha 3.1</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>deva 4</t>
-  </si>
-  <si>
-    <t>deva 3</t>
-  </si>
-  <si>
-    <t>sūriya 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>kopa 1</t>
-  </si>
-  <si>
-    <t>bhāva 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>piṇḍa 2</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>moghapurisa</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>dhīra 2.2</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.07</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>vihāra 3</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>pabbata 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>mitta 1</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1750,6 +1750,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1789,102 +1792,99 @@
     <t>saṃvattati</t>
   </si>
   <si>
+    <t>payirupāsati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>passati 3</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>passa 2.1</t>
+  </si>
+  <si>
     <t>vasati</t>
   </si>
   <si>
-    <t>payirupāsati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>passati 3</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>passa 2.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -2002,6 +2002,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -2017,9 +2020,6 @@
     <t>ujjhāyati</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>muñcati 2</t>
   </si>
   <si>
@@ -2212,24 +2212,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2404,6 +2404,9 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
@@ -2413,9 +2416,6 @@
     <t>iddhimant</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -2563,6 +2563,9 @@
     <t>assa 3.1</t>
   </si>
   <si>
+    <t>saddhā 2</t>
+  </si>
+  <si>
     <t>taṇhā 1</t>
   </si>
   <si>
@@ -2668,9 +2671,6 @@
     <t>desanā 3</t>
   </si>
   <si>
-    <t>saddhā 2</t>
-  </si>
-  <si>
     <t>vīmaṃsā 1</t>
   </si>
   <si>
@@ -2749,12 +2749,18 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
     <t>ādāya 3</t>
   </si>
   <si>
     <t>nissāya 1</t>
   </si>
   <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>ādāya 1</t>
   </si>
   <si>
@@ -2779,15 +2785,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2860,18 +2860,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -3058,6 +3058,9 @@
     <t>amata 1</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -3250,9 +3253,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -3751,7 +3751,7 @@
     <t>progressing; moving on; (comm) ending; depletion</t>
   </si>
   <si>
-    <t>free from discursive thought; lit. free from discursive thought; free from exploring, without pondering</t>
+    <t>free from discursive thought</t>
   </si>
   <si>
     <t>free from thinking; free from reflection</t>
@@ -3853,6 +3853,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -3895,9 +3898,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -3934,15 +3934,15 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
     <t>so much; this much; so long</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -4234,15 +4234,15 @@
     <t>then; also; and so; after that</t>
   </si>
   <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
     <t>mostly; almost all; more or less; generally; largely; by and large; for the most part</t>
   </si>
   <si>
@@ -4522,432 +4522,432 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>sound; voice; tone</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>home; rest; shelter</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>rain cloud</t>
+  </si>
+  <si>
+    <t>sun; lit. shining</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
+    <t>state; condition; characteristic; nature</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>bit of food; alms food</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
+  </si>
+  <si>
+    <t>wise man; sage; intelligent person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>truth; reality; principle; truth behind the teaching</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>mode of living; way of life; way to spend time; mode of existence</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mountain; hill</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>sound; voice; tone</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>home; rest; shelter</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>rain cloud</t>
-  </si>
-  <si>
-    <t>sun; lit. shining</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>state; condition; characteristic; nature</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>bit of food; alms food</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>wise man; sage; intelligent person</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>truth; reality; principle; truth behind the teaching</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>mode of living; way of life; way to spend time; mode of existence</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mountain; hill</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -5104,6 +5104,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -5143,102 +5146,99 @@
     <t>leads (to); results (in); causes</t>
   </si>
   <si>
+    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>finds; encounters; meets with; lit. sees</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
     <t>lives; stays; resides (in)</t>
   </si>
   <si>
-    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>finds; encounters; meets with; lit. sees</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>see!; look (at)!</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -5353,6 +5353,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -5368,9 +5371,6 @@
     <t>finds fault; thinks badly of</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>gets angry (with); lit. releases</t>
   </si>
   <si>
@@ -5563,24 +5563,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5755,6 +5755,9 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
@@ -5764,9 +5767,6 @@
     <t>who has psychic powers; possessing supernatural ability; lit. having power quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -5914,6 +5914,9 @@
     <t>may be; could be; should be</t>
   </si>
   <si>
+    <t>confidence (in); assurance (in); conviction (in); lit. putting heart</t>
+  </si>
+  <si>
     <t>craving (for); wanting; desire (for); lit. thirst</t>
   </si>
   <si>
@@ -6016,9 +6019,6 @@
     <t>(vinaya) appointing; allocating; indicating; designating; showing; lit. pointing out</t>
   </si>
   <si>
-    <t>confidence (in); assurance (in); conviction (in); lit. putting heart</t>
-  </si>
-  <si>
     <t>inquiry; judgement; investigation; discrimination</t>
   </si>
   <si>
@@ -6094,12 +6094,18 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
     <t>holding; carrying; having; with</t>
   </si>
   <si>
     <t>leaning (on); depending (on); being supported (by)</t>
   </si>
   <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>taking</t>
   </si>
   <si>
@@ -6124,15 +6130,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -6205,15 +6205,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -6397,6 +6397,9 @@
     <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -6587,9 +6590,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -14579,7 +14579,7 @@
         <v>1110</v>
       </c>
       <c r="C429" t="s">
-        <v>1552</v>
+        <v>1525</v>
       </c>
       <c r="D429" t="s">
         <v>2227</v>
@@ -14596,7 +14596,7 @@
         <v>1110</v>
       </c>
       <c r="C430" t="s">
-        <v>1526</v>
+        <v>1552</v>
       </c>
       <c r="D430" t="s">
         <v>2227</v>
@@ -14834,7 +14834,7 @@
         <v>1110</v>
       </c>
       <c r="C444" t="s">
-        <v>1566</v>
+        <v>1552</v>
       </c>
       <c r="D444" t="s">
         <v>2227</v>
@@ -14851,7 +14851,7 @@
         <v>1110</v>
       </c>
       <c r="C445" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D445" t="s">
         <v>2227</v>
@@ -14868,7 +14868,7 @@
         <v>1110</v>
       </c>
       <c r="C446" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="D446" t="s">
         <v>2227</v>
@@ -17789,7 +17789,7 @@
         <v>621</v>
       </c>
       <c r="B618" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="C618" t="s">
         <v>1739</v>
@@ -17806,7 +17806,7 @@
         <v>622</v>
       </c>
       <c r="B619" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C619" t="s">
         <v>1740</v>
@@ -22110,7 +22110,7 @@
         <v>1120</v>
       </c>
       <c r="C872" t="s">
-        <v>1580</v>
+        <v>1992</v>
       </c>
       <c r="D872" t="s">
         <v>2250</v>
@@ -22127,7 +22127,7 @@
         <v>1120</v>
       </c>
       <c r="C873" t="s">
-        <v>1992</v>
+        <v>1578</v>
       </c>
       <c r="D873" t="s">
         <v>2250</v>
@@ -23368,7 +23368,7 @@
         <v>1112</v>
       </c>
       <c r="C946" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D946" t="s">
         <v>1112</v>
@@ -23385,7 +23385,7 @@
         <v>1112</v>
       </c>
       <c r="C947" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="D947" t="s">
         <v>1112</v>
@@ -26003,7 +26003,7 @@
         <v>1125</v>
       </c>
       <c r="C1101" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="D1101" t="s">
         <v>2291</v>
